--- a/data/variant_scores.xlsx
+++ b/data/variant_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabea/Documents/git/Benchmarking_splice_prediction_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B948612-1DA8-D94C-A575-B8C3748CD93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5756EDB-BC09-1246-8CC1-CEE91F0EC256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00BBDB7D-4D36-9C42-84F9-7A4881ED73EF}"/>
+    <workbookView xWindow="-33600" yWindow="-900" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00BBDB7D-4D36-9C42-84F9-7A4881ED73EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ABCA4_NCSS" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="472">
   <si>
     <t>cDNA variant</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>g.94546814G&gt;C</t>
-  </si>
-  <si>
-    <t>4.0</t>
   </si>
   <si>
     <t>c.859-546G&gt;A</t>
@@ -1655,7 +1652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,24 +1662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1828,31 +1807,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1867,6 +1824,17 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2289,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EE5D0-37F1-2D4E-8A1F-9B7C42A8D6B8}">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:U319"/>
+    <sheetView showRuler="0" topLeftCell="C26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,10 +2340,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -2416,10 +2384,10 @@
       <c r="O2" s="21">
         <v>0.51085599999999998</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="45">
         <v>0.92950284000000005</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="45">
         <v>0.87694156000000001</v>
       </c>
       <c r="R2" s="2">
@@ -2437,10 +2405,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="C3" s="2">
         <v>49</v>
@@ -2481,10 +2449,10 @@
       <c r="O3" s="23">
         <v>0.61760899999999996</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="45">
         <v>0.99999190000000004</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="45">
         <v>0.99563820000000003</v>
       </c>
       <c r="R3" s="2">
@@ -2502,10 +2470,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="C4" s="2">
         <v>65.7</v>
@@ -2546,10 +2514,10 @@
       <c r="O4" s="21">
         <v>6.8239999999999995E-2</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="45">
         <v>0.9379672</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="45">
         <v>3.5277864E-7</v>
       </c>
       <c r="R4" s="2">
@@ -2567,10 +2535,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="C5" s="2">
         <v>56</v>
@@ -2579,7 +2547,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F5" s="2">
         <v>88.2</v>
@@ -2611,10 +2579,10 @@
       <c r="O5" s="21">
         <v>0.99932500000000002</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="45">
         <v>0.99311709999999997</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="45">
         <v>0.97689329999999996</v>
       </c>
       <c r="R5" s="2">
@@ -2632,10 +2600,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -2644,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F6" s="3">
         <v>88.218400000000003</v>
@@ -2676,10 +2644,10 @@
       <c r="O6" s="21">
         <v>0.99834900000000004</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="45">
         <v>0.99311709999999997</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="45">
         <v>0.9701263</v>
       </c>
       <c r="R6" s="2">
@@ -2697,10 +2665,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -2741,10 +2709,10 @@
       <c r="O7" s="21">
         <v>1.7682E-2</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="45">
         <v>0.98856690000000003</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="45">
         <v>1.1671883999999999E-4</v>
       </c>
       <c r="R7" s="2">
@@ -2762,10 +2730,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -2806,10 +2774,10 @@
       <c r="O8" s="21">
         <v>0.26428699999999999</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="45">
         <v>4.2490010000000002E-2</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="45">
         <v>3.8924493999999998E-3</v>
       </c>
       <c r="R8" s="2">
@@ -2827,10 +2795,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="C9" s="2">
         <v>52.1</v>
@@ -2871,10 +2839,10 @@
       <c r="O9" s="21">
         <v>3.418E-3</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="45">
         <v>0.99961599999999995</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="45">
         <v>3.7263233E-2</v>
       </c>
       <c r="R9" s="2">
@@ -2892,10 +2860,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="C10" s="2">
         <v>40</v>
@@ -2904,7 +2872,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="3">
         <v>86.8</v>
@@ -2936,10 +2904,10 @@
       <c r="O10" s="21">
         <v>0.97999700000000001</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="45">
         <v>0.99738055000000003</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="45">
         <v>0.99191110000000005</v>
       </c>
       <c r="R10" s="2">
@@ -2957,10 +2925,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="C11" s="2">
         <v>87</v>
@@ -3001,10 +2969,10 @@
       <c r="O11" s="21">
         <v>1.168E-3</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="45">
         <v>0.98906170000000004</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="45">
         <v>0.98565775</v>
       </c>
       <c r="R11" s="2">
@@ -3022,10 +2990,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="C12" s="2">
         <v>39.9</v>
@@ -3066,10 +3034,10 @@
       <c r="O12" s="21">
         <v>0.99113700000000005</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="45">
         <v>0.98335843999999994</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="45">
         <v>0.96301139999999996</v>
       </c>
       <c r="R12" s="2">
@@ -3087,10 +3055,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="C13" s="2">
         <v>20.399999999999999</v>
@@ -3131,10 +3099,10 @@
       <c r="O13" s="21">
         <v>0.98658100000000004</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="45">
         <v>0.98335843999999994</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="45">
         <v>0.92620910000000001</v>
       </c>
       <c r="R13" s="2">
@@ -3152,10 +3120,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
@@ -3196,10 +3164,10 @@
       <c r="O14" s="21">
         <v>0.83815899999999999</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="45">
         <v>0.99817239999999996</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="Q14" s="45">
         <v>0.91484319999999997</v>
       </c>
       <c r="R14" s="2">
@@ -3217,10 +3185,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -3261,10 +3229,10 @@
       <c r="O15" s="21">
         <v>0.51177300000000003</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="45">
         <v>0.99111510000000003</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="45">
         <v>0.8734729</v>
       </c>
       <c r="R15" s="2">
@@ -3282,10 +3250,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
@@ -3326,19 +3294,19 @@
       <c r="O16" s="21">
         <v>5.5779999999999996E-3</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="45">
         <v>0.99922060000000001</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="45">
         <v>1.7552894000000001E-3</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="42">
         <v>0.89</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="27">
         <v>3.5531489999999999</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="27">
         <v>-23.777000000000001</v>
       </c>
       <c r="U16" s="5">
@@ -3347,10 +3315,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
@@ -3391,19 +3359,19 @@
       <c r="O17" s="21">
         <v>0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="45">
         <v>0.99882570000000004</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="45">
         <v>0.99424696000000001</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="27">
         <v>3.4771169999999998</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="27">
         <v>-10.1435</v>
       </c>
       <c r="U17" s="5">
@@ -3412,10 +3380,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="C18" s="2">
         <v>47</v>
@@ -3456,19 +3424,19 @@
       <c r="O18" s="21">
         <v>0.75083900000000003</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="45">
         <v>0.99984824999999999</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="45">
         <v>0.81112340000000005</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="42">
         <v>0.59</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="27">
         <v>1.425908</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U18" s="5">
@@ -3477,10 +3445,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="C19" s="2">
         <v>100</v>
@@ -3521,19 +3489,19 @@
       <c r="O19" s="21">
         <v>0.43365799999999999</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="45">
         <v>0.99995160000000005</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="45">
         <v>0.94957170000000002</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="42">
         <v>0.92</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="27">
         <v>3.059733</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="27">
         <v>-1.1850000000000001</v>
       </c>
       <c r="U19" s="5">
@@ -3542,10 +3510,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C20" s="2">
         <v>89.1</v>
@@ -3554,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F20" s="3">
         <v>86.163499999999999</v>
@@ -3586,19 +3554,19 @@
       <c r="O20" s="21">
         <v>0.774335</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="45">
         <v>0.99995160000000005</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="45">
         <v>0.99124369999999995</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="42">
         <v>0.35</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="27">
         <v>4.9896140000000004</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="27">
         <v>-0.21990000000000001</v>
       </c>
       <c r="U20" s="5">
@@ -3607,10 +3575,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -3651,19 +3619,19 @@
       <c r="O21" s="21">
         <v>0.95809699999999998</v>
       </c>
-      <c r="P21" s="53">
+      <c r="P21" s="45">
         <v>0.99409676000000002</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="45">
         <v>0.99530136999999996</v>
       </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
+      <c r="R21" s="42">
+        <v>0</v>
+      </c>
+      <c r="S21" s="27">
         <v>-6.0139999999999999E-2</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="27">
         <v>-2.8117999999999999</v>
       </c>
       <c r="U21" s="5">
@@ -3672,10 +3640,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -3684,7 +3652,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F22" s="10">
         <v>89.4</v>
@@ -3716,19 +3684,19 @@
       <c r="O22" s="21">
         <v>0.76766800000000002</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="45">
         <v>0.99409676000000002</v>
       </c>
-      <c r="Q22" s="53">
+      <c r="Q22" s="45">
         <v>0.98619840000000003</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="42">
         <v>0.04</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="27">
         <v>4.178884</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="27">
         <v>-0.30420000000000003</v>
       </c>
       <c r="U22" s="5">
@@ -3737,10 +3705,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -3749,7 +3717,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F23" s="3">
         <v>79.8</v>
@@ -3781,10 +3749,10 @@
       <c r="O23" s="21">
         <v>0.27362799999999998</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="45">
         <v>0.91738070000000005</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="Q23" s="45">
         <v>2.6123295000000001E-2</v>
       </c>
       <c r="R23" s="2">
@@ -3802,10 +3770,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="C24" s="2">
         <v>100</v>
@@ -3814,7 +3782,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F24" s="3">
         <v>79.775000000000006</v>
@@ -3846,10 +3814,10 @@
       <c r="O24" s="21">
         <v>4.1632000000000002E-2</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="45">
         <v>0.91738070000000005</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="45">
         <v>4.7734505E-3</v>
       </c>
       <c r="R24" s="2">
@@ -3867,10 +3835,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="C25" s="2">
         <v>46.6</v>
@@ -3911,10 +3879,10 @@
       <c r="O25" s="21">
         <v>9.0954999999999994E-2</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="45">
         <v>0.97316440000000004</v>
       </c>
-      <c r="Q25" s="53">
+      <c r="Q25" s="45">
         <v>3.4085056E-4</v>
       </c>
       <c r="R25" s="2">
@@ -3931,11 +3899,11 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="C26" s="2">
         <v>31</v>
@@ -3944,7 +3912,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F26" s="3">
         <v>75.8</v>
@@ -3976,10 +3944,10 @@
       <c r="O26" s="23">
         <v>0.15475</v>
       </c>
-      <c r="P26" s="53">
+      <c r="P26" s="45">
         <v>0.97316440000000004</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="45">
         <v>5.2880733999999999E-2</v>
       </c>
       <c r="R26" s="2">
@@ -3997,10 +3965,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="C27" s="2">
         <v>100</v>
@@ -4009,7 +3977,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F27" s="3">
         <v>71.493099999999998</v>
@@ -4041,10 +4009,10 @@
       <c r="O27" s="21">
         <v>0.405387</v>
       </c>
-      <c r="P27" s="53">
+      <c r="P27" s="45">
         <v>0.99999749999999998</v>
       </c>
-      <c r="Q27" s="53">
+      <c r="Q27" s="45">
         <v>0.95446209999999998</v>
       </c>
       <c r="R27" s="2">
@@ -4062,10 +4030,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="C28" s="2">
         <v>100</v>
@@ -4074,7 +4042,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F28" s="10">
         <v>71.5</v>
@@ -4106,10 +4074,10 @@
       <c r="O28" s="21">
         <v>4.3791999999999998E-2</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="45">
         <v>0.99999749999999998</v>
       </c>
-      <c r="Q28" s="53">
+      <c r="Q28" s="45">
         <v>0.92788329999999997</v>
       </c>
       <c r="R28" s="2">
@@ -4126,11 +4094,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="C29" s="2">
         <v>24</v>
@@ -4171,10 +4139,10 @@
       <c r="O29" s="23">
         <v>0.84107900000000002</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="45">
         <v>0.62104320000000002</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="45">
         <v>0.4511039</v>
       </c>
       <c r="R29" s="2">
@@ -4192,10 +4160,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="C30" s="2">
         <v>92.2</v>
@@ -4236,10 +4204,10 @@
       <c r="O30" s="21">
         <v>0.64562799999999998</v>
       </c>
-      <c r="P30" s="53">
+      <c r="P30" s="45">
         <v>0.99976830000000005</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="45">
         <v>0.99824714999999997</v>
       </c>
       <c r="R30" s="2">
@@ -4257,10 +4225,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="C31" s="2">
         <v>100</v>
@@ -4301,10 +4269,10 @@
       <c r="O31" s="21">
         <v>0.31939800000000002</v>
       </c>
-      <c r="P31" s="53">
+      <c r="P31" s="45">
         <v>0.99976830000000005</v>
       </c>
-      <c r="Q31" s="53">
+      <c r="Q31" s="45">
         <v>0.98545700000000003</v>
       </c>
       <c r="R31" s="2">
@@ -4322,10 +4290,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="C32" s="2">
         <v>94.6</v>
@@ -4366,10 +4334,10 @@
       <c r="O32" s="21">
         <v>0.32803900000000003</v>
       </c>
-      <c r="P32" s="53">
+      <c r="P32" s="45">
         <v>0.99976830000000005</v>
       </c>
-      <c r="Q32" s="53">
+      <c r="Q32" s="45">
         <v>0.96305346000000003</v>
       </c>
       <c r="R32" s="2">
@@ -4387,10 +4355,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="C33" s="2">
         <v>95.7</v>
@@ -4399,7 +4367,7 @@
         <v>27</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F33" s="3">
         <v>76.518699999999995</v>
@@ -4431,10 +4399,10 @@
       <c r="O33" s="21">
         <v>0.28851700000000002</v>
       </c>
-      <c r="P33" s="53">
+      <c r="P33" s="45">
         <v>0.99692493999999998</v>
       </c>
-      <c r="Q33" s="53">
+      <c r="Q33" s="45">
         <v>0.94722850000000003</v>
       </c>
       <c r="R33" s="2">
@@ -4452,10 +4420,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
@@ -4464,7 +4432,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F34" s="3">
         <v>76.518699999999995</v>
@@ -4496,10 +4464,10 @@
       <c r="O34" s="21">
         <v>0.28714200000000001</v>
       </c>
-      <c r="P34" s="53">
+      <c r="P34" s="45">
         <v>0.99692493999999998</v>
       </c>
-      <c r="Q34" s="53">
+      <c r="Q34" s="45">
         <v>0.78572226000000001</v>
       </c>
       <c r="R34" s="2">
@@ -4516,11 +4484,11 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="C35" s="2">
         <v>95</v>
@@ -4529,7 +4497,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F35" s="22">
         <v>76.5</v>
@@ -4561,10 +4529,10 @@
       <c r="O35" s="21">
         <v>6.4549999999999998E-3</v>
       </c>
-      <c r="P35" s="53">
+      <c r="P35" s="45">
         <v>0.99692493999999998</v>
       </c>
-      <c r="Q35" s="53">
+      <c r="Q35" s="45">
         <v>0.18498102999999999</v>
       </c>
       <c r="R35" s="2">
@@ -4581,11 +4549,11 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="C36" s="2">
         <v>100</v>
@@ -4626,10 +4594,10 @@
       <c r="O36" s="21">
         <v>3.2849999999999997E-2</v>
       </c>
-      <c r="P36" s="53">
+      <c r="P36" s="45">
         <v>0.96403280000000002</v>
       </c>
-      <c r="Q36" s="53">
+      <c r="Q36" s="45">
         <v>0.61689179999999999</v>
       </c>
       <c r="R36" s="2">
@@ -4646,11 +4614,11 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -4659,7 +4627,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F37" s="22">
         <v>94.7</v>
@@ -4691,10 +4659,10 @@
       <c r="O37" s="21">
         <v>0.96014999999999995</v>
       </c>
-      <c r="P37" s="53">
+      <c r="P37" s="45">
         <v>0.99999558925628595</v>
       </c>
-      <c r="Q37" s="53">
+      <c r="Q37" s="45">
         <v>0.99994090000000002</v>
       </c>
       <c r="R37" s="2">
@@ -4712,10 +4680,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -4724,7 +4692,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F38" s="3">
         <v>94.671099999999996</v>
@@ -4756,10 +4724,10 @@
       <c r="O38" s="21">
         <v>0.60468999999999995</v>
       </c>
-      <c r="P38" s="53">
+      <c r="P38" s="45">
         <v>0.99999558925628595</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="Q38" s="45">
         <v>0.99943285999999998</v>
       </c>
       <c r="R38" s="2">
@@ -4777,10 +4745,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="C39" s="2">
         <v>100</v>
@@ -4789,7 +4757,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F39" s="2">
         <v>91.6</v>
@@ -4821,10 +4789,10 @@
       <c r="O39" s="21">
         <v>0.35868100000000003</v>
       </c>
-      <c r="P39" s="53">
+      <c r="P39" s="45">
         <v>0.99601315999999995</v>
       </c>
-      <c r="Q39" s="53">
+      <c r="Q39" s="45">
         <v>0.78844345000000005</v>
       </c>
       <c r="R39" s="2">
@@ -4842,10 +4810,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="C40" s="2">
         <v>100</v>
@@ -4854,7 +4822,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F40" s="3">
         <v>91.616399999999999</v>
@@ -4886,10 +4854,10 @@
       <c r="O40" s="21">
         <v>0.32105099999999998</v>
       </c>
-      <c r="P40" s="53">
+      <c r="P40" s="45">
         <v>0.99601315999999995</v>
       </c>
-      <c r="Q40" s="53">
+      <c r="Q40" s="45">
         <v>0.88904302999999996</v>
       </c>
       <c r="R40" s="2">
@@ -4907,10 +4875,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="C41" s="2">
         <v>75.400000000000006</v>
@@ -4951,10 +4919,10 @@
       <c r="O41" s="21">
         <v>0.598136</v>
       </c>
-      <c r="P41" s="53">
+      <c r="P41" s="45">
         <v>0.78308350000000004</v>
       </c>
-      <c r="Q41" s="53">
+      <c r="Q41" s="45">
         <v>3.0574197000000001E-2</v>
       </c>
       <c r="R41" s="2">
@@ -4972,10 +4940,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="C42" s="2">
         <v>70.900000000000006</v>
@@ -5016,10 +4984,10 @@
       <c r="O42" s="21">
         <v>3.6407000000000002E-2</v>
       </c>
-      <c r="P42" s="53">
+      <c r="P42" s="45">
         <v>0.78308350000000004</v>
       </c>
-      <c r="Q42" s="53">
+      <c r="Q42" s="45">
         <v>2.6821665999999999E-3</v>
       </c>
       <c r="R42" s="2">
@@ -5037,10 +5005,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="C43" s="2">
         <v>100</v>
@@ -5049,7 +5017,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F43" s="3">
         <v>77.810900000000004</v>
@@ -5081,10 +5049,10 @@
       <c r="O43" s="21">
         <v>0.43828699999999998</v>
       </c>
-      <c r="P43" s="53">
+      <c r="P43" s="45">
         <v>0.78308350000000004</v>
       </c>
-      <c r="Q43" s="53">
+      <c r="Q43" s="45">
         <v>9.7772083999999995E-2</v>
       </c>
       <c r="R43" s="2">
@@ -5102,10 +5070,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="C44" s="2">
         <v>90</v>
@@ -5146,10 +5114,10 @@
       <c r="O44" s="21">
         <v>0.193081</v>
       </c>
-      <c r="P44" s="53">
+      <c r="P44" s="45">
         <v>0.99542019999999998</v>
       </c>
-      <c r="Q44" s="53">
+      <c r="Q44" s="45">
         <v>0.51086759999999998</v>
       </c>
       <c r="R44" s="2">
@@ -5167,10 +5135,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="C45" s="2">
         <v>75</v>
@@ -5179,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F45" s="8">
         <v>80.2</v>
@@ -5211,19 +5179,19 @@
       <c r="O45" s="21">
         <v>0.71231699999999998</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P45" s="45">
         <v>0.96344715000000003</v>
       </c>
-      <c r="Q45" s="53">
+      <c r="Q45" s="45">
         <v>0.92671466000000002</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="42">
         <v>0.27</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="27">
         <v>5.5097639999999997</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="27">
         <v>-0.91410000000000002</v>
       </c>
       <c r="U45" s="5">
@@ -5232,10 +5200,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="C46" s="2">
         <v>100</v>
@@ -5276,19 +5244,19 @@
       <c r="O46" s="21">
         <v>1.7978999999999998E-2</v>
       </c>
-      <c r="P46" s="53">
+      <c r="P46" s="45">
         <v>0.35704871999999999</v>
       </c>
-      <c r="Q46" s="53">
+      <c r="Q46" s="45">
         <v>1.5780604E-5</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="42">
         <v>0.9</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="27">
         <v>3.3769870000000002</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="27">
         <v>-19.1724</v>
       </c>
       <c r="U46" s="5">
@@ -5297,10 +5265,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="C47" s="2">
         <v>100</v>
@@ -5341,19 +5309,19 @@
       <c r="O47" s="21">
         <v>2.761E-3</v>
       </c>
-      <c r="P47" s="53">
+      <c r="P47" s="45">
         <v>0.99997639656066895</v>
       </c>
-      <c r="Q47" s="53">
+      <c r="Q47" s="45">
         <v>1.876763E-2</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="42">
         <v>0.99</v>
       </c>
-      <c r="S47" s="44">
+      <c r="S47" s="27">
         <v>3.2033969999999998</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U47" s="5">
@@ -5362,10 +5330,10 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -5406,19 +5374,19 @@
       <c r="O48" s="21">
         <v>0</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P48" s="45">
         <v>0.99997639999999999</v>
       </c>
-      <c r="Q48" s="53">
+      <c r="Q48" s="45">
         <v>5.131235E-2</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="42">
         <v>0.99</v>
       </c>
-      <c r="S48" s="44">
+      <c r="S48" s="27">
         <v>1.161878</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T48" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U48" s="5">
@@ -5427,10 +5395,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="C49" s="2">
         <v>100</v>
@@ -5471,19 +5439,19 @@
       <c r="O49" s="21">
         <v>6.8916000000000005E-2</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P49" s="45">
         <v>0.99995995000000004</v>
       </c>
-      <c r="Q49" s="53">
+      <c r="Q49" s="45">
         <v>0.88196529999999995</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="42">
         <v>0.89</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="27">
         <v>2.259484</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="27">
         <v>-6.9732000000000003</v>
       </c>
       <c r="U49" s="5">
@@ -5492,10 +5460,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="C50" s="2">
         <v>100</v>
@@ -5536,19 +5504,19 @@
       <c r="O50" s="21">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P50" s="45">
         <v>0.99575764</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q50" s="45">
         <v>0.62960439999999995</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="42">
         <v>0.09</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50" s="27">
         <v>3.7761360000000002</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50" s="27">
         <v>-8.7128999999999994</v>
       </c>
       <c r="U50" s="5">
@@ -5557,10 +5525,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="C51" s="2">
         <v>100</v>
@@ -5601,19 +5569,19 @@
       <c r="O51" s="21">
         <v>2.1416999999999999E-2</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P51" s="45">
         <v>0.99849474000000005</v>
       </c>
-      <c r="Q51" s="53">
+      <c r="Q51" s="45">
         <v>2.8970540999999999E-2</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="42">
         <v>0.88</v>
       </c>
-      <c r="S51" s="5">
+      <c r="S51" s="27">
         <v>3.2338209999999998</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T51" s="27">
         <v>-15.8504</v>
       </c>
       <c r="U51" s="5">
@@ -5622,10 +5590,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="C52" s="2">
         <v>100</v>
@@ -5666,19 +5634,19 @@
       <c r="O52" s="21">
         <v>0.97148500000000004</v>
       </c>
-      <c r="P52" s="53">
+      <c r="P52" s="45">
         <v>0.99834679999999998</v>
       </c>
-      <c r="Q52" s="53">
+      <c r="Q52" s="45">
         <v>0.99556005000000003</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="42">
         <v>0.02</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S52" s="27">
         <v>0.70140400000000003</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T52" s="27">
         <v>-1.2175</v>
       </c>
       <c r="U52" s="5">
@@ -5687,10 +5655,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="C53" s="2">
         <v>100</v>
@@ -5731,19 +5699,19 @@
       <c r="O53" s="21">
         <v>2.7230000000000002E-3</v>
       </c>
-      <c r="P53" s="53">
+      <c r="P53" s="45">
         <v>0.99834679999999998</v>
       </c>
-      <c r="Q53" s="53">
+      <c r="Q53" s="45">
         <v>0.99063736000000002</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="42">
         <v>0.35</v>
       </c>
-      <c r="S53" s="5">
+      <c r="S53" s="27">
         <v>1.6108990000000001</v>
       </c>
-      <c r="T53" s="5">
+      <c r="T53" s="27">
         <v>-2.0546000000000002</v>
       </c>
       <c r="U53" s="5">
@@ -5752,10 +5720,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="C54" s="2">
         <v>100</v>
@@ -5796,19 +5764,19 @@
       <c r="O54" s="21">
         <v>0.94731799999999999</v>
       </c>
-      <c r="P54" s="53">
+      <c r="P54" s="45">
         <v>0.99834679999999998</v>
       </c>
-      <c r="Q54" s="53">
+      <c r="Q54" s="45">
         <v>0.98046595000000003</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="42">
         <v>0.03</v>
       </c>
-      <c r="S54" s="5">
+      <c r="S54" s="27">
         <v>0.791713</v>
       </c>
-      <c r="T54" s="5">
+      <c r="T54" s="27">
         <v>-3.0524</v>
       </c>
       <c r="U54" s="5">
@@ -5817,10 +5785,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="C55" s="2">
         <v>100</v>
@@ -5861,10 +5829,10 @@
       <c r="O55" s="21">
         <v>7.4640000000000001E-3</v>
       </c>
-      <c r="P55" s="53">
+      <c r="P55" s="45">
         <v>0.99564339999999996</v>
       </c>
-      <c r="Q55" s="53">
+      <c r="Q55" s="45">
         <v>0.32284814000000001</v>
       </c>
       <c r="R55" s="2">
@@ -5882,10 +5850,10 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="C56" s="2">
         <v>100</v>
@@ -5926,10 +5894,10 @@
       <c r="O56" s="21">
         <v>1.0975E-2</v>
       </c>
-      <c r="P56" s="53">
+      <c r="P56" s="45">
         <v>0.99564339999999996</v>
       </c>
-      <c r="Q56" s="53">
+      <c r="Q56" s="45">
         <v>0.96631860000000003</v>
       </c>
       <c r="R56" s="2">
@@ -5947,10 +5915,10 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="C57" s="2">
         <v>100</v>
@@ -5959,7 +5927,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F57" s="3">
         <v>72.900000000000006</v>
@@ -5991,10 +5959,10 @@
       <c r="O57" s="21">
         <v>1.0794E-2</v>
       </c>
-      <c r="P57" s="53">
+      <c r="P57" s="45">
         <v>0.99564339999999996</v>
       </c>
-      <c r="Q57" s="53">
+      <c r="Q57" s="45">
         <v>8.6177855999999997E-2</v>
       </c>
       <c r="R57" s="2">
@@ -6012,10 +5980,10 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -6056,10 +6024,10 @@
       <c r="O58" s="21">
         <v>0.990761</v>
       </c>
-      <c r="P58" s="53">
+      <c r="P58" s="45">
         <v>0.97023170000000003</v>
       </c>
-      <c r="Q58" s="53">
+      <c r="Q58" s="45">
         <v>0.91215265000000001</v>
       </c>
       <c r="R58" s="2">
@@ -6077,10 +6045,10 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="C59" s="2">
         <v>60.2</v>
@@ -6121,10 +6089,10 @@
       <c r="O59" s="21">
         <v>0.17038700000000001</v>
       </c>
-      <c r="P59" s="53">
+      <c r="P59" s="45">
         <v>0.99974079999999999</v>
       </c>
-      <c r="Q59" s="53">
+      <c r="Q59" s="45">
         <v>0.75225569999999997</v>
       </c>
       <c r="R59" s="2">
@@ -6142,10 +6110,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="C60" s="2">
         <v>87</v>
@@ -6186,10 +6154,10 @@
       <c r="O60" s="21">
         <v>0.99469399999999997</v>
       </c>
-      <c r="P60" s="53">
+      <c r="P60" s="45">
         <v>0.99881169999999997</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="45">
         <v>0.99261874000000005</v>
       </c>
       <c r="R60" s="2">
@@ -6207,10 +6175,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="C61" s="2">
         <v>100</v>
@@ -6251,10 +6219,10 @@
       <c r="O61" s="21">
         <v>0.65728900000000001</v>
       </c>
-      <c r="P61" s="53">
+      <c r="P61" s="45">
         <v>0.99904890000000002</v>
       </c>
-      <c r="Q61" s="53">
+      <c r="Q61" s="45">
         <v>0.98447640000000003</v>
       </c>
       <c r="R61" s="2">
@@ -6272,10 +6240,10 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="C62" s="2">
         <v>95.5</v>
@@ -6316,13 +6284,13 @@
       <c r="O62" s="21">
         <v>8.9055999999999996E-2</v>
       </c>
-      <c r="P62" s="53">
+      <c r="P62" s="45">
         <v>0.99622463999999999</v>
       </c>
-      <c r="Q62" s="54">
+      <c r="Q62" s="46">
         <v>1.37446085E-2</v>
       </c>
-      <c r="R62" s="50">
+      <c r="R62" s="42">
         <v>0.84</v>
       </c>
       <c r="S62" s="27">
@@ -6337,10 +6305,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="C63" s="2">
         <v>48</v>
@@ -6381,13 +6349,13 @@
       <c r="O63" s="21">
         <v>0.47607300000000002</v>
       </c>
-      <c r="P63" s="53">
+      <c r="P63" s="45">
         <v>0.99622463999999999</v>
       </c>
-      <c r="Q63" s="54">
+      <c r="Q63" s="46">
         <v>0.15659825999999999</v>
       </c>
-      <c r="R63" s="50">
+      <c r="R63" s="42">
         <v>0.71</v>
       </c>
       <c r="S63" s="27">
@@ -6402,10 +6370,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="C64" s="2">
         <v>100</v>
@@ -6414,7 +6382,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F64" s="2">
         <v>77.900000000000006</v>
@@ -6446,13 +6414,13 @@
       <c r="O64" s="21">
         <v>3.4559999999999999E-3</v>
       </c>
-      <c r="P64" s="53">
+      <c r="P64" s="45">
         <v>0.99789329999999998</v>
       </c>
-      <c r="Q64" s="54">
+      <c r="Q64" s="46">
         <v>0.15242675999999999</v>
       </c>
-      <c r="R64" s="50">
+      <c r="R64" s="42">
         <v>0.97</v>
       </c>
       <c r="S64" s="27">
@@ -6467,10 +6435,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -6479,7 +6447,7 @@
         <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F65" s="8">
         <v>86.4</v>
@@ -6511,13 +6479,13 @@
       <c r="O65" s="21">
         <v>0.99949200000000005</v>
       </c>
-      <c r="P65" s="53">
+      <c r="P65" s="45">
         <v>0.99978679999999998</v>
       </c>
-      <c r="Q65" s="54">
+      <c r="Q65" s="46">
         <v>0.99965369999999998</v>
       </c>
-      <c r="R65" s="50">
+      <c r="R65" s="42">
         <v>0</v>
       </c>
       <c r="S65" s="27">
@@ -6532,10 +6500,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C66" s="2">
         <v>100</v>
@@ -6544,7 +6512,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F66" s="2">
         <v>85.3</v>
@@ -6576,13 +6544,13 @@
       <c r="O66" s="21">
         <v>0</v>
       </c>
-      <c r="P66" s="53">
+      <c r="P66" s="45">
         <v>0.99998960000000003</v>
       </c>
-      <c r="Q66" s="54">
+      <c r="Q66" s="46">
         <v>0.99935240000000003</v>
       </c>
-      <c r="R66" s="50">
+      <c r="R66" s="42">
         <v>0.85</v>
       </c>
       <c r="S66" s="27">
@@ -6597,10 +6565,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C67" s="2">
         <v>26</v>
@@ -6641,13 +6609,13 @@
       <c r="O67" s="21">
         <v>0</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="45">
         <v>0.99998962879180897</v>
       </c>
-      <c r="Q67" s="54">
+      <c r="Q67" s="46">
         <v>0.99486439999999998</v>
       </c>
-      <c r="R67" s="50">
+      <c r="R67" s="42">
         <v>0.53</v>
       </c>
       <c r="S67" s="27">
@@ -6662,10 +6630,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="C68" s="2">
         <v>44.8</v>
@@ -6674,7 +6642,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F68" s="3">
         <v>82.085400000000007</v>
@@ -6706,13 +6674,13 @@
       <c r="O68" s="21">
         <v>0.56586800000000004</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="45">
         <v>0.99970680000000001</v>
       </c>
-      <c r="Q68" s="54">
+      <c r="Q68" s="46">
         <v>0.99805295000000005</v>
       </c>
-      <c r="R68" s="50">
+      <c r="R68" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S68" s="27">
@@ -6727,10 +6695,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="C69" s="2">
         <v>100</v>
@@ -6771,13 +6739,13 @@
       <c r="O69" s="21">
         <v>0.40262900000000001</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="45">
         <v>0.99970680000000001</v>
       </c>
-      <c r="Q69" s="54">
+      <c r="Q69" s="46">
         <v>0.99630355999999998</v>
       </c>
-      <c r="R69" s="50">
+      <c r="R69" s="42">
         <v>0.56000000000000005</v>
       </c>
       <c r="S69" s="27">
@@ -6792,10 +6760,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="C70" s="2">
         <v>100</v>
@@ -6836,13 +6804,13 @@
       <c r="O70" s="21">
         <v>0</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="45">
         <v>0.99974830000000003</v>
       </c>
-      <c r="Q70" s="54">
+      <c r="Q70" s="46">
         <v>0.48531678</v>
       </c>
-      <c r="R70" s="50">
+      <c r="R70" s="42">
         <v>0.96</v>
       </c>
       <c r="S70" s="27">
@@ -6857,10 +6825,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="C71" s="2">
         <v>100</v>
@@ -6869,7 +6837,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F71" s="3">
         <v>83.4</v>
@@ -6901,13 +6869,13 @@
       <c r="O71" s="21">
         <v>0.25705</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="45">
         <v>0.99994799999999995</v>
       </c>
-      <c r="Q71" s="54">
+      <c r="Q71" s="46">
         <v>0.81381630000000005</v>
       </c>
-      <c r="R71" s="50">
+      <c r="R71" s="42">
         <v>0.42</v>
       </c>
       <c r="S71" s="27">
@@ -6922,10 +6890,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="C72" s="2">
         <v>24.3</v>
@@ -6966,13 +6934,13 @@
       <c r="O72" s="21">
         <v>0.58185100000000001</v>
       </c>
-      <c r="P72" s="53">
+      <c r="P72" s="45">
         <v>0.92250220000000005</v>
       </c>
-      <c r="Q72" s="54">
+      <c r="Q72" s="46">
         <v>0.93810539999999998</v>
       </c>
-      <c r="R72" s="50">
+      <c r="R72" s="42">
         <v>0.11</v>
       </c>
       <c r="S72" s="27">
@@ -7000,8 +6968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23974B4F-0441-6B42-891C-257B60990767}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7132,10 +7100,10 @@
       <c r="O2" s="27">
         <v>0.48344700000000002</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="45">
         <v>1.8083022E-4</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="45">
         <v>0.79343410000000003</v>
       </c>
       <c r="R2" s="2">
@@ -7197,10 +7165,10 @@
       <c r="O3" s="27">
         <v>7.1390000000000004E-3</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="45">
         <v>1.2646852E-5</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="45">
         <v>0.42738505999999998</v>
       </c>
       <c r="R3" s="2">
@@ -7262,10 +7230,10 @@
       <c r="O4" s="27">
         <v>0.65833200000000003</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="45">
         <v>6.2241919999999999E-5</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="45">
         <v>0.93373333999999997</v>
       </c>
       <c r="R4" s="2">
@@ -7327,10 +7295,10 @@
       <c r="O5" s="27">
         <v>6.9099999999999999E-4</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="45">
         <v>7.6620860000000008E-6</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="45">
         <v>2.1982631999999999E-5</v>
       </c>
       <c r="R5" s="2">
@@ -7392,10 +7360,10 @@
       <c r="O6" s="27">
         <v>4.6753000000000003E-2</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="45">
         <v>3.1053443E-2</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="45">
         <v>0.34535650000000001</v>
       </c>
       <c r="R6" s="2">
@@ -7457,10 +7425,10 @@
       <c r="O7" s="27">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="45">
         <v>6.9648459999999996E-7</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="45">
         <v>9.0186899999999999E-6</v>
       </c>
       <c r="R7" s="2">
@@ -7522,10 +7490,10 @@
       <c r="O8" s="27">
         <v>1.8900000000000001E-4</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="45">
         <v>9.4592400000000003E-6</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="45">
         <v>2.5749709999999999E-5</v>
       </c>
       <c r="R8" s="2">
@@ -7587,10 +7555,10 @@
       <c r="O9" s="27">
         <v>3.3860000000000001E-3</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="45">
         <v>0.28488360000000001</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="45">
         <v>7.5800969999999995E-2</v>
       </c>
       <c r="R9" s="2">
@@ -7652,10 +7620,10 @@
       <c r="O10" s="27">
         <v>0.68769100000000005</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="45">
         <v>0.98110330000000001</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="45">
         <v>0.99915326000000004</v>
       </c>
       <c r="R10" s="2">
@@ -7717,10 +7685,10 @@
       <c r="O11" s="27">
         <v>0.67371999999999999</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="45">
         <v>1.0547528E-2</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="45">
         <v>0.99610089999999996</v>
       </c>
       <c r="R11" s="2">
@@ -7732,7 +7700,7 @@
       <c r="T11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="41">
         <v>2.8169576925836171</v>
       </c>
     </row>
@@ -7782,10 +7750,10 @@
       <c r="O12" s="27">
         <v>7.332E-3</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="45">
         <v>1.0547528E-2</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="45">
         <v>0.97707330000000003</v>
       </c>
       <c r="R12" s="2">
@@ -7797,7 +7765,7 @@
       <c r="T12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="41">
         <v>1.435439589300112</v>
       </c>
     </row>
@@ -7847,10 +7815,10 @@
       <c r="O13" s="27">
         <v>1.0449999999999999E-3</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="45">
         <v>2.4759796999999999E-3</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="45">
         <v>5.179693E-3</v>
       </c>
       <c r="R13" s="2">
@@ -7912,10 +7880,10 @@
       <c r="O14" s="27">
         <v>0.77104300000000003</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="45">
         <v>0.93518630000000003</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="Q14" s="45">
         <v>0.99959019999999998</v>
       </c>
       <c r="R14" s="2">
@@ -7977,10 +7945,10 @@
       <c r="O15" s="27">
         <v>9.8737000000000005E-2</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="45">
         <v>4.0197639999999999E-5</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="45">
         <v>7.8621734999999995E-5</v>
       </c>
       <c r="R15" s="2">
@@ -8042,10 +8010,10 @@
       <c r="O16" s="27">
         <v>0.62888900000000003</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="45">
         <v>1.5985683E-3</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="45">
         <v>0.99221987</v>
       </c>
       <c r="R16" s="2">
@@ -8107,10 +8075,10 @@
       <c r="O17" s="27">
         <v>1.2326E-2</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="45">
         <v>1.2137607E-2</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="45">
         <v>2.4006911999999998E-2</v>
       </c>
       <c r="R17" s="2">
@@ -8172,10 +8140,10 @@
       <c r="O18" s="27">
         <v>0.29014699999999999</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="45">
         <v>0.21006384</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="45">
         <v>0.91202479999999997</v>
       </c>
       <c r="R18" s="2">
@@ -8193,10 +8161,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -8237,10 +8205,10 @@
       <c r="O19" s="27">
         <v>5.6400000000000005E-4</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="45">
         <v>3.9529055E-2</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="45">
         <v>7.5893619999999995E-2</v>
       </c>
       <c r="R19" s="2">
@@ -8302,10 +8270,10 @@
       <c r="O20" s="27">
         <v>0.958511</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="45">
         <v>0.85971516000000003</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="45">
         <v>0.8496416</v>
       </c>
       <c r="R20" s="2">
@@ -8367,10 +8335,10 @@
       <c r="O21" s="27">
         <v>0.98872599999999999</v>
       </c>
-      <c r="P21" s="53">
+      <c r="P21" s="45">
         <v>0.86987550000000002</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="45">
         <v>0.99943199999999999</v>
       </c>
       <c r="R21" s="2">
@@ -8432,10 +8400,10 @@
       <c r="O22" s="27">
         <v>3.1100000000000002E-4</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="45">
         <v>1.5866945E-11</v>
       </c>
-      <c r="Q22" s="53">
+      <c r="Q22" s="45">
         <v>4.0766339999999999E-11</v>
       </c>
       <c r="R22" s="2">
@@ -8497,10 +8465,10 @@
       <c r="O23" s="27">
         <v>5.8589999999999996E-3</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="45">
         <v>0.39671990000000001</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="Q23" s="45">
         <v>0.71746427000000002</v>
       </c>
       <c r="R23" s="2">
@@ -8562,10 +8530,10 @@
       <c r="O24" s="27">
         <v>0.323125</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="45">
         <v>0.66272514999999999</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="45">
         <v>0.989263</v>
       </c>
       <c r="R24" s="2">
@@ -8627,10 +8595,10 @@
       <c r="O25" s="27">
         <v>4.1199999999999999E-4</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="45">
         <v>2.0558325E-6</v>
       </c>
-      <c r="Q25" s="53">
+      <c r="Q25" s="45">
         <v>3.4782634999999997E-5</v>
       </c>
       <c r="R25" s="2">
@@ -8692,10 +8660,10 @@
       <c r="O26" s="27">
         <v>2.5434999999999999E-2</v>
       </c>
-      <c r="P26" s="53">
+      <c r="P26" s="45">
         <v>1.1907376E-4</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="45">
         <v>3.4782634999999997E-5</v>
       </c>
       <c r="R26" s="2">
@@ -8713,10 +8681,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -8757,10 +8725,10 @@
       <c r="O27" s="27">
         <v>3.0467999999999999E-2</v>
       </c>
-      <c r="P27" s="53">
+      <c r="P27" s="45">
         <v>3.9901870000000003E-5</v>
       </c>
-      <c r="Q27" s="53">
+      <c r="Q27" s="45">
         <v>6.6003904000000003E-6</v>
       </c>
       <c r="R27" s="2">
@@ -8778,10 +8746,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -8822,10 +8790,10 @@
       <c r="O28" s="27">
         <v>0.45039800000000002</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="45">
         <v>9.8997000000000009E-3</v>
       </c>
-      <c r="Q28" s="53">
+      <c r="Q28" s="45">
         <v>0.85826444999999996</v>
       </c>
       <c r="R28" s="2">
@@ -8843,10 +8811,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -8887,10 +8855,10 @@
       <c r="O29" s="27">
         <v>0.92626200000000003</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="45">
         <v>0.96429750000000003</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="45">
         <v>0.99874169999999995</v>
       </c>
       <c r="R29" s="2">
@@ -8952,10 +8920,10 @@
       <c r="O30" s="27">
         <v>0.53632999999999997</v>
       </c>
-      <c r="P30" s="53">
+      <c r="P30" s="45">
         <v>0.28517777</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="45">
         <v>0.97763454999999999</v>
       </c>
       <c r="R30" s="2">
@@ -9017,10 +8985,10 @@
       <c r="O31" s="27">
         <v>0.64877700000000005</v>
       </c>
-      <c r="P31" s="53">
+      <c r="P31" s="45">
         <v>0.28517777</v>
       </c>
-      <c r="Q31" s="53">
+      <c r="Q31" s="45">
         <v>0.97285809999999995</v>
       </c>
       <c r="R31" s="2">
@@ -9082,10 +9050,10 @@
       <c r="O32" s="27">
         <v>0.46260000000000001</v>
       </c>
-      <c r="P32" s="53">
+      <c r="P32" s="45">
         <v>1.9934879999999999E-4</v>
       </c>
-      <c r="Q32" s="53">
+      <c r="Q32" s="45">
         <v>0.97299069999999999</v>
       </c>
       <c r="R32" s="2">
@@ -9147,10 +9115,10 @@
       <c r="O33" s="27">
         <v>0.57360100000000003</v>
       </c>
-      <c r="P33" s="53">
+      <c r="P33" s="45">
         <v>0.46204289999999998</v>
       </c>
-      <c r="Q33" s="53">
+      <c r="Q33" s="45">
         <v>0.95261525999999996</v>
       </c>
       <c r="R33" s="2">
@@ -9212,10 +9180,10 @@
       <c r="O34" s="27">
         <v>0.60426999999999997</v>
       </c>
-      <c r="P34" s="53">
+      <c r="P34" s="45">
         <v>0.23402037000000001</v>
       </c>
-      <c r="Q34" s="53">
+      <c r="Q34" s="45">
         <v>0.99628830000000002</v>
       </c>
       <c r="R34" s="2">
@@ -9277,10 +9245,10 @@
       <c r="O35" s="27">
         <v>0.26286599999999999</v>
       </c>
-      <c r="P35" s="53">
+      <c r="P35" s="45">
         <v>1.4812479999999999E-2</v>
       </c>
-      <c r="Q35" s="53">
+      <c r="Q35" s="45">
         <v>9.9933120000000007E-3</v>
       </c>
       <c r="R35" s="2">
@@ -9342,10 +9310,10 @@
       <c r="O36" s="27">
         <v>0.99187599999999998</v>
       </c>
-      <c r="P36" s="53">
+      <c r="P36" s="45">
         <v>0.98624486</v>
       </c>
-      <c r="Q36" s="53">
+      <c r="Q36" s="45">
         <v>0.99969949999999996</v>
       </c>
       <c r="R36" s="2">
@@ -9407,10 +9375,10 @@
       <c r="O37" s="27">
         <v>0.57689500000000005</v>
       </c>
-      <c r="P37" s="53">
+      <c r="P37" s="45">
         <v>0.13130691999999999</v>
       </c>
-      <c r="Q37" s="53">
+      <c r="Q37" s="45">
         <v>0.93609940000000003</v>
       </c>
       <c r="R37" s="2">
@@ -9472,10 +9440,10 @@
       <c r="O38" s="27">
         <v>0.98476799999999998</v>
       </c>
-      <c r="P38" s="53">
+      <c r="P38" s="45">
         <v>0.9891662</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="Q38" s="45">
         <v>0.99826680000000001</v>
       </c>
       <c r="R38" s="2">
@@ -9537,10 +9505,10 @@
       <c r="O39" s="27">
         <v>0.45508100000000001</v>
       </c>
-      <c r="P39" s="53">
+      <c r="P39" s="45">
         <v>8.7406729999999999E-7</v>
       </c>
-      <c r="Q39" s="53">
+      <c r="Q39" s="45">
         <v>7.3456460000000001E-2</v>
       </c>
       <c r="R39" s="2">
@@ -9602,10 +9570,10 @@
       <c r="O40" s="27">
         <v>1.1143999999999999E-2</v>
       </c>
-      <c r="P40" s="53">
+      <c r="P40" s="45">
         <v>1.3535699999999999E-2</v>
       </c>
-      <c r="Q40" s="53">
+      <c r="Q40" s="45">
         <v>1.0715861E-2</v>
       </c>
       <c r="R40" s="2">
@@ -9667,10 +9635,10 @@
       <c r="O41" s="27">
         <v>0.99754100000000001</v>
       </c>
-      <c r="P41" s="53">
+      <c r="P41" s="45">
         <v>0.99711110000000003</v>
       </c>
-      <c r="Q41" s="53">
+      <c r="Q41" s="45">
         <v>0.99995599999999996</v>
       </c>
       <c r="R41" s="2">
@@ -9732,10 +9700,10 @@
       <c r="O42" s="27">
         <v>4.6129999999999999E-3</v>
       </c>
-      <c r="P42" s="53">
+      <c r="P42" s="45">
         <v>9.2544929999999995E-4</v>
       </c>
-      <c r="Q42" s="53">
+      <c r="Q42" s="45">
         <v>9.0211710000000003E-5</v>
       </c>
       <c r="R42" s="2">
@@ -9797,10 +9765,10 @@
       <c r="O43" s="27">
         <v>8.4065000000000001E-2</v>
       </c>
-      <c r="P43" s="53">
+      <c r="P43" s="45">
         <v>0.13124179999999999</v>
       </c>
-      <c r="Q43" s="53">
+      <c r="Q43" s="45">
         <v>0.16388921000000001</v>
       </c>
       <c r="R43" s="2">
@@ -9818,10 +9786,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="C44" s="2">
         <v>100</v>
@@ -9862,10 +9830,10 @@
       <c r="O44" s="27">
         <v>0.99878900000000004</v>
       </c>
-      <c r="P44" s="53">
+      <c r="P44" s="45">
         <v>0.70965873999999995</v>
       </c>
-      <c r="Q44" s="53">
+      <c r="Q44" s="45">
         <v>0.99516004000000002</v>
       </c>
       <c r="R44" s="2">
@@ -9883,10 +9851,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -9927,10 +9895,10 @@
       <c r="O45" s="27">
         <v>4.6579999999999998E-3</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P45" s="45">
         <v>1.2660277000000001E-3</v>
       </c>
-      <c r="Q45" s="53">
+      <c r="Q45" s="45">
         <v>5.2709069999999997E-2</v>
       </c>
       <c r="R45" s="2">
@@ -9948,10 +9916,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -9992,10 +9960,10 @@
       <c r="O46" s="27">
         <v>6.339E-3</v>
       </c>
-      <c r="P46" s="53">
+      <c r="P46" s="45">
         <v>8.7966704999999992E-3</v>
       </c>
-      <c r="Q46" s="53">
+      <c r="Q46" s="45">
         <v>4.4225349999999997E-2</v>
       </c>
       <c r="R46" s="2">
@@ -10013,10 +9981,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -10057,10 +10025,10 @@
       <c r="O47" s="27">
         <v>3.8249999999999998E-3</v>
       </c>
-      <c r="P47" s="53">
+      <c r="P47" s="45">
         <v>1.2185922E-2</v>
       </c>
-      <c r="Q47" s="53">
+      <c r="Q47" s="45">
         <v>0.20366466</v>
       </c>
       <c r="R47" s="2">
@@ -10122,10 +10090,10 @@
       <c r="O48" s="27">
         <v>1.5953999999999999E-2</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P48" s="45">
         <v>1.4169876E-3</v>
       </c>
-      <c r="Q48" s="53">
+      <c r="Q48" s="45">
         <v>6.0213710000000002E-4</v>
       </c>
       <c r="R48" s="2">
@@ -10187,10 +10155,10 @@
       <c r="O49" s="27">
         <v>1.256E-3</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P49" s="45">
         <v>8.4398485999999995E-2</v>
       </c>
-      <c r="Q49" s="53">
+      <c r="Q49" s="45">
         <v>0.10655959</v>
       </c>
       <c r="R49" s="2">
@@ -10252,10 +10220,10 @@
       <c r="O50" s="27">
         <v>2.1069999999999999E-3</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P50" s="45">
         <v>7.9461620000000006E-5</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q50" s="45">
         <v>6.9568059999999999E-5</v>
       </c>
       <c r="R50" s="2">
@@ -10317,10 +10285,10 @@
       <c r="O51" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P51" s="45">
         <v>6.0534276000000002E-5</v>
       </c>
-      <c r="Q51" s="53">
+      <c r="Q51" s="45">
         <v>5.8731616999999998E-5</v>
       </c>
       <c r="R51" s="2">
@@ -10382,10 +10350,10 @@
       <c r="O52" s="27">
         <v>0.89268000000000003</v>
       </c>
-      <c r="P52" s="53">
+      <c r="P52" s="45">
         <v>0.99794954000000002</v>
       </c>
-      <c r="Q52" s="53">
+      <c r="Q52" s="45">
         <v>0.99975630000000004</v>
       </c>
       <c r="R52" s="2">
@@ -10447,10 +10415,10 @@
       <c r="O53" s="27">
         <v>4.4028999999999999E-2</v>
       </c>
-      <c r="P53" s="53">
+      <c r="P53" s="45">
         <v>0.82370739999999998</v>
       </c>
-      <c r="Q53" s="53">
+      <c r="Q53" s="45">
         <v>0.85000810000000004</v>
       </c>
       <c r="R53" s="2">
@@ -10512,10 +10480,10 @@
       <c r="O54" s="27">
         <v>0.97056500000000001</v>
       </c>
-      <c r="P54" s="53">
+      <c r="P54" s="45">
         <v>2.1316113000000001E-4</v>
       </c>
-      <c r="Q54" s="53">
+      <c r="Q54" s="45">
         <v>0.98840463000000001</v>
       </c>
       <c r="R54" s="2">
@@ -10577,10 +10545,10 @@
       <c r="O55" s="5">
         <v>2.7399999999999999E-4</v>
       </c>
-      <c r="P55" s="53">
+      <c r="P55" s="45">
         <v>2.1098283999999999E-3</v>
       </c>
-      <c r="Q55" s="53">
+      <c r="Q55" s="45">
         <v>5.7406310000000004E-3</v>
       </c>
       <c r="R55" s="2">
@@ -10598,10 +10566,10 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -10642,10 +10610,10 @@
       <c r="O56" s="27">
         <v>0.54237800000000003</v>
       </c>
-      <c r="P56" s="53">
+      <c r="P56" s="45">
         <v>6.9255700000000003E-2</v>
       </c>
-      <c r="Q56" s="53">
+      <c r="Q56" s="45">
         <v>0.99898390000000004</v>
       </c>
       <c r="R56" s="2">
@@ -10663,10 +10631,10 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -10707,10 +10675,10 @@
       <c r="O57" s="27">
         <v>7.1170000000000001E-3</v>
       </c>
-      <c r="P57" s="53">
+      <c r="P57" s="45">
         <v>2.254867E-8</v>
       </c>
-      <c r="Q57" s="53">
+      <c r="Q57" s="45">
         <v>5.4761536E-2</v>
       </c>
       <c r="R57" s="2">
@@ -10728,10 +10696,10 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="C58" s="2">
         <v>67</v>
@@ -10772,10 +10740,10 @@
       <c r="O58" s="27">
         <v>0.98532500000000001</v>
       </c>
-      <c r="P58" s="53">
+      <c r="P58" s="45">
         <v>0.13036026000000001</v>
       </c>
-      <c r="Q58" s="53">
+      <c r="Q58" s="45">
         <v>0.99939895000000001</v>
       </c>
       <c r="R58" s="2">
@@ -10793,10 +10761,10 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -10837,10 +10805,10 @@
       <c r="O59" s="27">
         <v>0.15543100000000001</v>
       </c>
-      <c r="P59" s="53">
+      <c r="P59" s="45">
         <v>5.3717119999999998E-3</v>
       </c>
-      <c r="Q59" s="53">
+      <c r="Q59" s="45">
         <v>0.31232840000000001</v>
       </c>
       <c r="R59" s="2">
@@ -10858,10 +10826,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -10902,10 +10870,10 @@
       <c r="O60" s="27">
         <v>4.2129999999999997E-3</v>
       </c>
-      <c r="P60" s="53">
+      <c r="P60" s="45">
         <v>0.25205660000000002</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="45">
         <v>0.47818524000000001</v>
       </c>
       <c r="R60" s="2">
@@ -10923,10 +10891,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -10967,10 +10935,10 @@
       <c r="O61" s="27">
         <v>2.1498E-2</v>
       </c>
-      <c r="P61" s="53">
+      <c r="P61" s="45">
         <v>5.6349604999999997E-2</v>
       </c>
-      <c r="Q61" s="53">
+      <c r="Q61" s="45">
         <v>2.0158367E-2</v>
       </c>
       <c r="R61" s="2">
@@ -10988,10 +10956,10 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -11032,10 +11000,10 @@
       <c r="O62" s="27">
         <v>0.68120700000000001</v>
       </c>
-      <c r="P62" s="53">
+      <c r="P62" s="45">
         <v>0.99683160000000004</v>
       </c>
-      <c r="Q62" s="53">
+      <c r="Q62" s="45">
         <v>0.99791664000000002</v>
       </c>
       <c r="R62" s="2">
@@ -11053,10 +11021,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -11097,10 +11065,10 @@
       <c r="O63" s="27">
         <v>0.77470899999999998</v>
       </c>
-      <c r="P63" s="53">
+      <c r="P63" s="45">
         <v>1.1609392E-2</v>
       </c>
-      <c r="Q63" s="53">
+      <c r="Q63" s="45">
         <v>0.96495489999999995</v>
       </c>
       <c r="R63" s="2">
@@ -11118,10 +11086,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -11162,10 +11130,10 @@
       <c r="O64" s="27">
         <v>0.76580300000000001</v>
       </c>
-      <c r="P64" s="53">
+      <c r="P64" s="45">
         <v>0.89569586999999995</v>
       </c>
-      <c r="Q64" s="53">
+      <c r="Q64" s="45">
         <v>0.82866483999999996</v>
       </c>
       <c r="R64" s="2">
@@ -11182,19 +11150,19 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="43">
-        <v>0</v>
-      </c>
-      <c r="D65" s="43" t="s">
+      <c r="C65" s="42">
+        <v>0</v>
+      </c>
+      <c r="D65" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="42">
         <v>6</v>
       </c>
       <c r="F65" s="47">
@@ -11221,25 +11189,25 @@
       <c r="M65" s="47">
         <v>0</v>
       </c>
-      <c r="N65" s="44">
+      <c r="N65" s="27">
         <v>2.7070000000000002E-3</v>
       </c>
-      <c r="O65" s="44">
+      <c r="O65" s="27">
         <v>1.5991999999999999E-2</v>
       </c>
-      <c r="P65" s="53">
+      <c r="P65" s="46">
         <v>4.5927769999999998E-4</v>
       </c>
-      <c r="Q65" s="53">
+      <c r="Q65" s="46">
         <v>2.3157876000000001E-2</v>
       </c>
-      <c r="R65" s="43">
-        <v>0</v>
-      </c>
-      <c r="S65" s="44">
+      <c r="R65" s="42">
+        <v>0</v>
+      </c>
+      <c r="S65" s="27">
         <v>1.798994</v>
       </c>
-      <c r="T65" s="44" t="s">
+      <c r="T65" s="27" t="s">
         <v>24</v>
       </c>
       <c r="U65" s="48" t="s">
@@ -11248,10 +11216,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -11292,10 +11260,10 @@
       <c r="O66" s="27">
         <v>1.642E-3</v>
       </c>
-      <c r="P66" s="53">
+      <c r="P66" s="45">
         <v>1.3867749E-2</v>
       </c>
-      <c r="Q66" s="53">
+      <c r="Q66" s="45">
         <v>5.5355515000000001E-2</v>
       </c>
       <c r="R66" s="2">
@@ -11313,10 +11281,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -11357,10 +11325,10 @@
       <c r="O67" s="27">
         <v>0.70475399999999999</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="45">
         <v>4.7076259999999999E-6</v>
       </c>
-      <c r="Q67" s="53">
+      <c r="Q67" s="45">
         <v>0.54470300000000005</v>
       </c>
       <c r="R67" s="2">
@@ -11378,10 +11346,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -11422,10 +11390,10 @@
       <c r="O68" s="27">
         <v>0.10492600000000001</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="45">
         <v>0.36467513000000001</v>
       </c>
-      <c r="Q68" s="53">
+      <c r="Q68" s="45">
         <v>0.47066669999999999</v>
       </c>
       <c r="R68" s="2">
@@ -11443,10 +11411,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -11487,10 +11455,10 @@
       <c r="O69" s="27">
         <v>6.0300000000000002E-4</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="45">
         <v>8.3742899999999994E-5</v>
       </c>
-      <c r="Q69" s="53">
+      <c r="Q69" s="45">
         <v>3.2303230000000001E-5</v>
       </c>
       <c r="R69" s="2">
@@ -11508,10 +11476,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -11552,10 +11520,10 @@
       <c r="O70" s="27">
         <v>0.90755399999999997</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="45">
         <v>0.99989519999999998</v>
       </c>
-      <c r="Q70" s="53">
+      <c r="Q70" s="45">
         <v>0.99986050000000004</v>
       </c>
       <c r="R70" s="2">
@@ -11573,10 +11541,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -11617,10 +11585,10 @@
       <c r="O71" s="27">
         <v>0.63321000000000005</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="45">
         <v>6.6793286000000002E-3</v>
       </c>
-      <c r="Q71" s="53">
+      <c r="Q71" s="45">
         <v>0.51803385999999996</v>
       </c>
       <c r="R71" s="2">
@@ -11638,10 +11606,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="C72" s="2">
         <v>8</v>
@@ -11682,10 +11650,10 @@
       <c r="O72" s="27">
         <v>0.94991099999999995</v>
       </c>
-      <c r="P72" s="53">
+      <c r="P72" s="45">
         <v>0.92188256999999996</v>
       </c>
-      <c r="Q72" s="53">
+      <c r="Q72" s="45">
         <v>0.9531792</v>
       </c>
       <c r="R72" s="2">
@@ -11703,10 +11671,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C73" s="2">
         <v>96</v>
@@ -11747,10 +11715,10 @@
       <c r="O73" s="27">
         <v>0.98729299999999998</v>
       </c>
-      <c r="P73" s="53">
+      <c r="P73" s="45">
         <v>0.92188256999999996</v>
       </c>
-      <c r="Q73" s="53">
+      <c r="Q73" s="45">
         <v>0.98399599999999998</v>
       </c>
       <c r="R73" s="2">
@@ -11768,10 +11736,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -11812,10 +11780,10 @@
       <c r="O74" s="27">
         <v>3.0360000000000001E-3</v>
       </c>
-      <c r="P74" s="53">
+      <c r="P74" s="45">
         <v>3.6193349999999999E-2</v>
       </c>
-      <c r="Q74" s="53">
+      <c r="Q74" s="45">
         <v>0.36972581999999998</v>
       </c>
       <c r="R74" s="2">
@@ -11833,10 +11801,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -11877,10 +11845,10 @@
       <c r="O75" s="27">
         <v>4.5254000000000003E-2</v>
       </c>
-      <c r="P75" s="53">
+      <c r="P75" s="45">
         <v>0.94709723999999995</v>
       </c>
-      <c r="Q75" s="53">
+      <c r="Q75" s="45">
         <v>0.96429330000000002</v>
       </c>
       <c r="R75" s="2">
@@ -11898,10 +11866,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -11942,10 +11910,10 @@
       <c r="O76" s="27">
         <v>1.9449999999999999E-3</v>
       </c>
-      <c r="P76" s="53">
+      <c r="P76" s="45">
         <v>0.98740050000000001</v>
       </c>
-      <c r="Q76" s="53">
+      <c r="Q76" s="45">
         <v>0.98968350000000005</v>
       </c>
       <c r="R76" s="2">
@@ -11963,10 +11931,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -12007,10 +11975,10 @@
       <c r="O77" s="27">
         <v>3.1018E-2</v>
       </c>
-      <c r="P77" s="53">
+      <c r="P77" s="45">
         <v>5.4725260000000001E-4</v>
       </c>
-      <c r="Q77" s="53">
+      <c r="Q77" s="45">
         <v>3.9400323000000001E-3</v>
       </c>
       <c r="R77" s="2">
@@ -12072,10 +12040,10 @@
       <c r="O78" s="27">
         <v>0.45918599999999998</v>
       </c>
-      <c r="P78" s="53">
+      <c r="P78" s="45">
         <v>9.9067180000000005E-2</v>
       </c>
-      <c r="Q78" s="53">
+      <c r="Q78" s="45">
         <v>0.92405753999999996</v>
       </c>
       <c r="R78" s="2">
@@ -12091,7 +12059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>118</v>
       </c>
@@ -12116,8 +12084,8 @@
       <c r="H79" s="9">
         <v>0</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>120</v>
+      <c r="I79" s="51">
+        <v>4</v>
       </c>
       <c r="J79" s="8">
         <v>0</v>
@@ -12137,10 +12105,10 @@
       <c r="O79" s="27">
         <v>0.676898</v>
       </c>
-      <c r="P79" s="53">
+      <c r="P79" s="45">
         <v>2.256514E-4</v>
       </c>
-      <c r="Q79" s="53">
+      <c r="Q79" s="45">
         <v>0.47848865000000002</v>
       </c>
       <c r="R79" s="2">
@@ -12158,10 +12126,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C80" s="2">
         <v>64</v>
@@ -12202,10 +12170,10 @@
       <c r="O80" s="27">
         <v>0.11244800000000001</v>
       </c>
-      <c r="P80" s="53">
+      <c r="P80" s="45">
         <v>2.256514E-4</v>
       </c>
-      <c r="Q80" s="53">
+      <c r="Q80" s="45">
         <v>7.2021659999999996E-4</v>
       </c>
       <c r="R80" s="2">
@@ -12223,10 +12191,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="C81" s="2">
         <v>100</v>
@@ -12267,10 +12235,10 @@
       <c r="O81" s="27">
         <v>0.50731999999999999</v>
       </c>
-      <c r="P81" s="53">
+      <c r="P81" s="45">
         <v>5.7450660000000001E-4</v>
       </c>
-      <c r="Q81" s="53">
+      <c r="Q81" s="45">
         <v>0.58418060000000005</v>
       </c>
       <c r="R81" s="2">
@@ -12288,10 +12256,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -12332,10 +12300,10 @@
       <c r="O82" s="27">
         <v>7.8379999999999995E-3</v>
       </c>
-      <c r="P82" s="53">
+      <c r="P82" s="45">
         <v>0.82706729999999995</v>
       </c>
-      <c r="Q82" s="53">
+      <c r="Q82" s="45">
         <v>0.84150179999999997</v>
       </c>
       <c r="R82" s="2">
@@ -12405,10 +12373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14763D6-1BAB-9348-BB8F-2E2ACA948947}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12487,11 +12455,11 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -12541,7 +12509,7 @@
       <c r="R2" s="2">
         <v>0.37</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="5">
         <v>1.045329</v>
       </c>
       <c r="T2" s="5">
@@ -12552,11 +12520,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -12606,7 +12574,7 @@
       <c r="R3" s="2">
         <v>0.75</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="5">
         <v>3.0665149999999999</v>
       </c>
       <c r="T3" s="5">
@@ -12617,11 +12585,11 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -12671,7 +12639,7 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <v>0.13176499999999999</v>
       </c>
       <c r="T4" s="5">
@@ -12682,11 +12650,11 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -12736,7 +12704,7 @@
       <c r="R5" s="2">
         <v>0.12</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <v>2.9107530000000001</v>
       </c>
       <c r="T5" s="5">
@@ -12747,11 +12715,11 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -12801,7 +12769,7 @@
       <c r="R6" s="2">
         <v>0.3</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <v>3.0434990000000002</v>
       </c>
       <c r="T6" s="5">
@@ -12812,11 +12780,11 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -12866,7 +12834,7 @@
       <c r="R7" s="2">
         <v>0.11</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <v>2.85385</v>
       </c>
       <c r="T7" s="5">
@@ -12877,11 +12845,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -12931,7 +12899,7 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <v>7.22E-2</v>
       </c>
       <c r="T8" s="5">
@@ -12942,11 +12910,11 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -12996,7 +12964,7 @@
       <c r="R9" s="2">
         <v>0.85</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <v>2.9385370000000002</v>
       </c>
       <c r="T9" s="5">
@@ -13007,11 +12975,11 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -13061,7 +13029,7 @@
       <c r="R10" s="2">
         <v>0.06</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <v>1.027361</v>
       </c>
       <c r="T10" s="5">
@@ -13072,11 +13040,11 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -13126,7 +13094,7 @@
       <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <v>0.367199</v>
       </c>
       <c r="T11" s="5">
@@ -13137,11 +13105,11 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
@@ -13150,7 +13118,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F12" s="2">
         <v>80.2</v>
@@ -13191,7 +13159,7 @@
       <c r="R12" s="2">
         <v>0.26</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="5">
         <v>5.5241990000000003</v>
       </c>
       <c r="T12" s="5">
@@ -13202,11 +13170,11 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -13241,10 +13209,10 @@
       <c r="M13" s="2">
         <v>7.9</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="27">
         <v>0.99938499999999997</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="27">
         <v>0.99949699999999997</v>
       </c>
       <c r="P13" s="5">
@@ -13256,7 +13224,7 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="5">
         <v>9.0556999999999999E-2</v>
       </c>
       <c r="T13" s="5">
@@ -13267,11 +13235,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
@@ -13321,7 +13289,7 @@
       <c r="R14" s="2">
         <v>0.96</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="5">
         <v>3.963984</v>
       </c>
       <c r="T14" s="5">
@@ -13332,11 +13300,11 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -13386,7 +13354,7 @@
       <c r="R15" s="2">
         <v>0.61</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="5">
         <v>2.986062</v>
       </c>
       <c r="T15" s="5">
@@ -13397,11 +13365,11 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -13451,7 +13419,7 @@
       <c r="R16" s="2">
         <v>0.09</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <v>0.43202600000000002</v>
       </c>
       <c r="T16" s="5">
@@ -13462,11 +13430,11 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
@@ -13475,7 +13443,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F17" s="2">
         <v>76.8</v>
@@ -13516,7 +13484,7 @@
       <c r="R17" s="2">
         <v>0.04</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="5">
         <v>5.0008970000000001</v>
       </c>
       <c r="T17" s="5">
@@ -13527,11 +13495,11 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -13540,7 +13508,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F18" s="2">
         <v>76.8</v>
@@ -13581,7 +13549,7 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="5">
         <v>1.0725519999999999</v>
       </c>
       <c r="T18" s="5">
@@ -13592,11 +13560,11 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -13605,7 +13573,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F19" s="2">
         <v>76.8</v>
@@ -13646,7 +13614,7 @@
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="5">
         <v>5.6257000000000001E-2</v>
       </c>
       <c r="T19" s="5">
@@ -13657,11 +13625,11 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -13711,7 +13679,7 @@
       <c r="R20" s="2">
         <v>0.12</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <v>0.195019</v>
       </c>
       <c r="T20" s="5">
@@ -13722,11 +13690,11 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -13735,7 +13703,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F21" s="2">
         <v>77.599999999999994</v>
@@ -13776,7 +13744,7 @@
       <c r="R21" s="2">
         <v>0.86</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="5">
         <v>6.6847779999999997</v>
       </c>
       <c r="T21" s="5">
@@ -13787,11 +13755,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -13800,7 +13768,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F22" s="2">
         <v>77.599999999999994</v>
@@ -13841,7 +13809,7 @@
       <c r="R22" s="2">
         <v>0.02</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="5">
         <v>1.3968529999999999</v>
       </c>
       <c r="T22" s="5">
@@ -13852,11 +13820,11 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -13906,7 +13874,7 @@
       <c r="R23" s="2">
         <v>0.34</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="5">
         <v>1.975001</v>
       </c>
       <c r="T23" s="5">
@@ -13917,11 +13885,11 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -13971,7 +13939,7 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="5">
         <v>0.191945</v>
       </c>
       <c r="T24" s="5">
@@ -13982,11 +13950,11 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
@@ -14036,7 +14004,7 @@
       <c r="R25" s="2">
         <v>0.17</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="5">
         <v>3.380223</v>
       </c>
       <c r="T25" s="5">
@@ -14047,11 +14015,11 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
@@ -14101,7 +14069,7 @@
       <c r="R26" s="2">
         <v>0.89</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="5">
         <v>3.8565499999999999</v>
       </c>
       <c r="T26" s="5">
@@ -14112,11 +14080,11 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="C27" s="2">
         <v>100</v>
@@ -14125,7 +14093,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F27" s="2">
         <v>83.7</v>
@@ -14166,7 +14134,7 @@
       <c r="R27" s="2">
         <v>0.32</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="5">
         <v>6.2932110000000003</v>
       </c>
       <c r="T27" s="5">
@@ -14177,11 +14145,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -14190,7 +14158,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F28" s="2">
         <v>83.7</v>
@@ -14231,7 +14199,7 @@
       <c r="R28" s="2">
         <v>0.05</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="5">
         <v>4.8553810000000004</v>
       </c>
       <c r="T28" s="5">
@@ -14242,11 +14210,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C29" s="2">
         <v>100</v>
@@ -14296,7 +14264,7 @@
       <c r="R29" s="2">
         <v>0</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="5">
         <v>0.39444400000000002</v>
       </c>
       <c r="T29" s="5">
@@ -14307,11 +14275,11 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -14361,7 +14329,7 @@
       <c r="R30" s="2">
         <v>0</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="5">
         <v>0.80174000000000001</v>
       </c>
       <c r="T30" s="5">
@@ -14372,11 +14340,11 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="C31" s="2">
         <v>100</v>
@@ -14426,7 +14394,7 @@
       <c r="R31" s="2">
         <v>0.16</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="5">
         <v>2.410129</v>
       </c>
       <c r="T31" s="5">
@@ -14437,11 +14405,11 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="C32" s="2">
         <v>100</v>
@@ -14450,7 +14418,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F32" s="2">
         <v>80.599999999999994</v>
@@ -14491,7 +14459,7 @@
       <c r="R32" s="2">
         <v>0.02</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="5">
         <v>4.0638769999999997</v>
       </c>
       <c r="T32" s="5">
@@ -14502,11 +14470,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -14556,7 +14524,7 @@
       <c r="R33" s="2">
         <v>0.03</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="5">
         <v>0.94568399999999997</v>
       </c>
       <c r="T33" s="5">
@@ -14567,11 +14535,11 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
@@ -14621,7 +14589,7 @@
       <c r="R34" s="2">
         <v>0.93</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="5">
         <v>3.1638709999999999</v>
       </c>
       <c r="T34" s="5">
@@ -14632,11 +14600,11 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="C35" s="2">
         <v>100</v>
@@ -14686,7 +14654,7 @@
       <c r="R35" s="2">
         <v>0.25</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="5">
         <v>1.732343</v>
       </c>
       <c r="T35" s="5">
@@ -14697,11 +14665,11 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -14710,7 +14678,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F36" s="2">
         <v>86.8</v>
@@ -14751,7 +14719,7 @@
       <c r="R36" s="2">
         <v>0</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="5">
         <v>4.1827480000000001</v>
       </c>
       <c r="T36" s="5">
@@ -14762,11 +14730,11 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -14775,7 +14743,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F37" s="2">
         <v>79.5</v>
@@ -14816,7 +14784,7 @@
       <c r="R37" s="2">
         <v>0.91</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="5">
         <v>5.3897430000000002</v>
       </c>
       <c r="T37" s="5">
@@ -14827,11 +14795,11 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
@@ -14881,7 +14849,7 @@
       <c r="R38" s="2">
         <v>0.01</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="5">
         <v>1.9540999999999999E-2</v>
       </c>
       <c r="T38" s="5">
@@ -14892,11 +14860,11 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="C39" s="2">
         <v>100</v>
@@ -14946,7 +14914,7 @@
       <c r="R39" s="2">
         <v>0.04</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="5">
         <v>-8.0800000000000002E-4</v>
       </c>
       <c r="T39" s="5">
@@ -14957,11 +14925,11 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="C40" s="2">
         <v>100</v>
@@ -15011,7 +14979,7 @@
       <c r="R40" s="2">
         <v>0</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="5">
         <v>-0.45463900000000002</v>
       </c>
       <c r="T40" s="5">
@@ -15022,11 +14990,11 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -15076,7 +15044,7 @@
       <c r="R41" s="2">
         <v>0.03</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="5">
         <v>0.58253900000000003</v>
       </c>
       <c r="T41" s="5">
@@ -15087,11 +15055,11 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -15141,7 +15109,7 @@
       <c r="R42" s="2">
         <v>0.16</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="5">
         <v>0.66515899999999994</v>
       </c>
       <c r="T42" s="5">
@@ -15152,11 +15120,11 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -15206,7 +15174,7 @@
       <c r="R43" s="2">
         <v>0.15</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="5">
         <v>0.68251099999999998</v>
       </c>
       <c r="T43" s="5">
@@ -15217,11 +15185,11 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -15271,7 +15239,7 @@
       <c r="R44" s="2">
         <v>0</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="5">
         <v>0.41068900000000003</v>
       </c>
       <c r="T44" s="5">
@@ -15282,11 +15250,11 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="C45" s="2">
         <v>100</v>
@@ -15336,7 +15304,7 @@
       <c r="R45" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="5">
         <v>1.4352750000000001</v>
       </c>
       <c r="T45" s="5">
@@ -15347,11 +15315,11 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="C46" s="2">
         <v>100</v>
@@ -15401,7 +15369,7 @@
       <c r="R46" s="2">
         <v>0.45</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="5">
         <v>0.27510400000000002</v>
       </c>
       <c r="T46" s="5">
@@ -15412,11 +15380,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="C47" s="2">
         <v>100</v>
@@ -15466,7 +15434,7 @@
       <c r="R47" s="2">
         <v>0.36</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="5">
         <v>1.690914</v>
       </c>
       <c r="T47" s="5">
@@ -15477,11 +15445,11 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="C48" s="2">
         <v>100</v>
@@ -15531,7 +15499,7 @@
       <c r="R48" s="2">
         <v>0.06</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="5">
         <v>-5.6804E-2</v>
       </c>
       <c r="T48" s="5" t="s">
@@ -15542,11 +15510,11 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -15555,7 +15523,7 @@
         <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F49" s="2">
         <v>71.8</v>
@@ -15596,7 +15564,7 @@
       <c r="R49" s="2">
         <v>0</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="5">
         <v>4.1721789999999999</v>
       </c>
       <c r="T49" s="5" t="s">
@@ -15607,11 +15575,11 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="C50" s="2">
         <v>100</v>
@@ -15661,7 +15629,7 @@
       <c r="R50" s="2">
         <v>0.86</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="5">
         <v>3.3396119999999998</v>
       </c>
       <c r="T50" s="5">
@@ -15672,11 +15640,11 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -15685,7 +15653,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F51" s="2">
         <v>82.3</v>
@@ -15726,7 +15694,7 @@
       <c r="R51" s="2">
         <v>0.03</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="5">
         <v>2.9296389999999999</v>
       </c>
       <c r="T51" s="5">
@@ -15737,11 +15705,11 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="C52" s="2">
         <v>100</v>
@@ -15750,7 +15718,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F52" s="2">
         <v>81.400000000000006</v>
@@ -15791,7 +15759,7 @@
       <c r="R52" s="2">
         <v>0.17</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="5">
         <v>5.1909270000000003</v>
       </c>
       <c r="T52" s="5">
@@ -15802,11 +15770,11 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="C53" s="2">
         <v>100</v>
@@ -15815,7 +15783,7 @@
         <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F53" s="2">
         <v>78</v>
@@ -15856,7 +15824,7 @@
       <c r="R53" s="2">
         <v>0</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="5">
         <v>3.7764760000000002</v>
       </c>
       <c r="T53" s="5">
@@ -15867,11 +15835,11 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="C54" s="2">
         <v>100</v>
@@ -15880,7 +15848,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F54" s="2">
         <v>78</v>
@@ -15921,7 +15889,7 @@
       <c r="R54" s="2">
         <v>0</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="5">
         <v>3.268824</v>
       </c>
       <c r="T54" s="5">
@@ -15932,11 +15900,11 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="C55" s="2">
         <v>100</v>
@@ -15986,7 +15954,7 @@
       <c r="R55" s="2">
         <v>0.06</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="5">
         <v>1.945033</v>
       </c>
       <c r="T55" s="5">
@@ -15997,11 +15965,11 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="C56" s="2">
         <v>100</v>
@@ -16051,7 +16019,7 @@
       <c r="R56" s="2">
         <v>0.12</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="5">
         <v>2.1555110000000002</v>
       </c>
       <c r="T56" s="5">
@@ -16062,11 +16030,11 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="C57" s="2">
         <v>100</v>
@@ -16116,7 +16084,7 @@
       <c r="R57" s="2">
         <v>0.86</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="5">
         <v>3.814762</v>
       </c>
       <c r="T57" s="5">
@@ -16127,11 +16095,11 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="C58" s="2">
         <v>100</v>
@@ -16181,7 +16149,7 @@
       <c r="R58" s="2">
         <v>0</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="5">
         <v>-3.1317999999999999E-2</v>
       </c>
       <c r="T58" s="5">
@@ -16192,11 +16160,11 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -16246,7 +16214,7 @@
       <c r="R59" s="2">
         <v>0.18</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="5">
         <v>2.0887229999999999</v>
       </c>
       <c r="T59" s="5">
@@ -16257,11 +16225,11 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -16270,7 +16238,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F60" s="2">
         <v>90</v>
@@ -16311,7 +16279,7 @@
       <c r="R60" s="2">
         <v>0.27</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="5">
         <v>2.3797839999999999</v>
       </c>
       <c r="T60" s="5">
@@ -16322,11 +16290,11 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="C61" s="2">
         <v>100</v>
@@ -16376,7 +16344,7 @@
       <c r="R61" s="2">
         <v>0.39</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="5">
         <v>0.62514700000000001</v>
       </c>
       <c r="T61" s="5">
@@ -16387,11 +16355,11 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -16441,7 +16409,7 @@
       <c r="R62" s="2">
         <v>0.1</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="5">
         <v>2.4568469999999998</v>
       </c>
       <c r="T62" s="5" t="s">
@@ -16450,6 +16418,9 @@
       <c r="U62" s="5">
         <v>-1.5328606003615119</v>
       </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S63" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U62">
@@ -16480,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -16502,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -16510,7 +16481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -16518,7 +16489,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -16526,7 +16497,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -16534,7 +16505,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C7" s="39"/>
     </row>
@@ -16543,7 +16514,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="39"/>
     </row>
@@ -16552,7 +16523,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -16560,7 +16531,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -16568,7 +16539,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -16576,7 +16547,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -16584,7 +16555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -16592,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -16600,7 +16571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -16608,7 +16579,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -16616,7 +16587,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -16624,7 +16595,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -16632,7 +16603,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -16640,7 +16611,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -16648,7 +16619,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
